--- a/llc页面对照表.xlsx
+++ b/llc页面对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,53 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>red-packet.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 抢红包活动-l.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 砸金蛋活动-l.psd</t>
+  </si>
+  <si>
+    <t>golden-egg.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 快客会员卡-l.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuaike.hmtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +83,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +384,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/llc页面对照表.xlsx
+++ b/llc页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>red-packet.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,22 @@
   </si>
   <si>
     <t>kuaike.hmtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 海边烧烤-l.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaokao.hmtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试水通知-l.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -421,6 +437,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/llc页面对照表.xlsx
+++ b/llc页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>red-packet.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,22 @@
   </si>
   <si>
     <t>message.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 功能介绍-l.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20消息-l.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,6 +469,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/llc页面对照表.xlsx
+++ b/llc页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>red-packet.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kuaike.hmtl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12 海边烧烤-l.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shaokao.hmtl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>试水通知-l.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +60,30 @@
   </si>
   <si>
     <t>20消息-l.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 实时动态-l.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 发起成功（加姓名列表）.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuaike.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaokao.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaokao-succeed.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,39 +466,55 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
